--- a/proforma/Gantt Graph.xlsx
+++ b/proforma/Gantt Graph.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastianbaltser/Dropbox (Personlig)/CBS/Kandidatspeciale/proforma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D90CC4-302B-AC42-B712-FDF93A36D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399CFEAE-3776-CE47-9F34-9AA0B1A8E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22280" xr2:uid="{FABB2423-51C0-B543-936A-ABC79A206F78}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>January</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Literature studies</t>
   </si>
   <si>
-    <t>Choice of topic</t>
-  </si>
-  <si>
     <t>Choice of methods</t>
   </si>
   <si>
@@ -82,13 +79,29 @@
   </si>
   <si>
     <t>Prepare defence</t>
+  </si>
+  <si>
+    <t>Decide and eleborate on research questions</t>
+  </si>
+  <si>
+    <t>Study the FVA debate 
+Castagna (2013), Ruiz (2013)
+Hull &amp; White (2014)</t>
+  </si>
+  <si>
+    <t>Establish FVA definition and theory
+Andersen Duffie Song (2019)
+Hillion (2016)</t>
+  </si>
+  <si>
+    <t>Use Pull Requests to maintain a steady rate of revision and proof reading during the entire process.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,13 +116,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -139,11 +165,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,16 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD52F44-BE0A-754D-8107-5D3F9F23B52C}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="16.6640625" customWidth="1"/>
+    <col min="2" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -490,73 +524,79 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -565,40 +605,31 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
